--- a/hh/met/source_img/screenshot/расчет px.xlsx
+++ b/hh/met/source_img/screenshot/расчет px.xlsx
@@ -360,19 +360,19 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="B1">
-        <v>81</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <f>A2*B1/A1</f>
-        <v>62.307692307692307</v>
+        <v>47.03125</v>
       </c>
     </row>
   </sheetData>

--- a/hh/met/source_img/screenshot/расчет px.xlsx
+++ b/hh/met/source_img/screenshot/расчет px.xlsx
@@ -360,19 +360,19 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B1">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <f>A2*B1/A1</f>
-        <v>47.03125</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/hh/met/source_img/screenshot/расчет px.xlsx
+++ b/hh/met/source_img/screenshot/расчет px.xlsx
@@ -17,9 +17,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="120"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -47,8 +55,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -357,26 +366,31 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="46.7109375" customWidth="1"/>
+    <col min="2" max="2" width="44.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>24</v>
+    <row r="1" spans="1:2" ht="153" x14ac:dyDescent="2.2000000000000002">
+      <c r="A1" s="1">
+        <v>16</v>
       </c>
-      <c r="B1">
-        <v>36</v>
+      <c r="B1" s="1">
+        <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>22</v>
+    <row r="2" spans="1:2" ht="153" x14ac:dyDescent="2.2000000000000002">
+      <c r="A2" s="1">
+        <v>14</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <f>A2*B1/A1</f>
-        <v>33</v>
+        <v>19.25</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/hh/met/source_img/screenshot/расчет px.xlsx
+++ b/hh/met/source_img/screenshot/расчет px.xlsx
@@ -373,19 +373,19 @@
   <sheetData>
     <row r="1" spans="1:2" ht="153" x14ac:dyDescent="2.2000000000000002">
       <c r="A1" s="1">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="B1" s="1">
-        <v>22</v>
+        <v>435</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="153" x14ac:dyDescent="2.2000000000000002">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>160</v>
       </c>
       <c r="B2" s="1">
         <f>A2*B1/A1</f>
-        <v>19.25</v>
+        <v>193.33333333333334</v>
       </c>
     </row>
   </sheetData>

--- a/hh/met/source_img/screenshot/расчет px.xlsx
+++ b/hh/met/source_img/screenshot/расчет px.xlsx
@@ -373,19 +373,19 @@
   <sheetData>
     <row r="1" spans="1:2" ht="153" x14ac:dyDescent="2.2000000000000002">
       <c r="A1" s="1">
-        <v>360</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1">
-        <v>435</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="153" x14ac:dyDescent="2.2000000000000002">
       <c r="A2" s="1">
-        <v>160</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1">
         <f>A2*B1/A1</f>
-        <v>193.33333333333334</v>
+        <v>22.4</v>
       </c>
     </row>
   </sheetData>

--- a/hh/met/source_img/screenshot/расчет px.xlsx
+++ b/hh/met/source_img/screenshot/расчет px.xlsx
@@ -373,19 +373,19 @@
   <sheetData>
     <row r="1" spans="1:2" ht="153" x14ac:dyDescent="2.2000000000000002">
       <c r="A1" s="1">
-        <v>15</v>
+        <v>280</v>
       </c>
       <c r="B1" s="1">
-        <v>24</v>
+        <v>328</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="153" x14ac:dyDescent="2.2000000000000002">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>370</v>
       </c>
       <c r="B2" s="1">
         <f>A2*B1/A1</f>
-        <v>22.4</v>
+        <v>433.42857142857144</v>
       </c>
     </row>
   </sheetData>

--- a/hh/met/source_img/screenshot/расчет px.xlsx
+++ b/hh/met/source_img/screenshot/расчет px.xlsx
@@ -373,19 +373,19 @@
   <sheetData>
     <row r="1" spans="1:2" ht="153" x14ac:dyDescent="2.2000000000000002">
       <c r="A1" s="1">
-        <v>280</v>
+        <v>370</v>
       </c>
       <c r="B1" s="1">
-        <v>328</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="153" x14ac:dyDescent="2.2000000000000002">
       <c r="A2" s="1">
-        <v>370</v>
+        <v>307</v>
       </c>
       <c r="B2" s="1">
         <f>A2*B1/A1</f>
-        <v>433.42857142857144</v>
+        <v>280.44864864864866</v>
       </c>
     </row>
   </sheetData>

--- a/hh/met/source_img/screenshot/расчет px.xlsx
+++ b/hh/met/source_img/screenshot/расчет px.xlsx
@@ -373,19 +373,19 @@
   <sheetData>
     <row r="1" spans="1:2" ht="153" x14ac:dyDescent="2.2000000000000002">
       <c r="A1" s="1">
-        <v>370</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1">
-        <v>338</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="153" x14ac:dyDescent="2.2000000000000002">
       <c r="A2" s="1">
-        <v>307</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1">
         <f>A2*B1/A1</f>
-        <v>280.44864864864866</v>
+        <v>21.333333333333332</v>
       </c>
     </row>
   </sheetData>

--- a/hh/met/source_img/screenshot/расчет px.xlsx
+++ b/hh/met/source_img/screenshot/расчет px.xlsx
@@ -373,19 +373,19 @@
   <sheetData>
     <row r="1" spans="1:2" ht="153" x14ac:dyDescent="2.2000000000000002">
       <c r="A1" s="1">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="153" x14ac:dyDescent="2.2000000000000002">
       <c r="A2" s="1">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1">
         <f>A2*B1/A1</f>
-        <v>21.333333333333332</v>
+        <v>29.5625</v>
       </c>
     </row>
   </sheetData>

--- a/hh/met/source_img/screenshot/расчет px.xlsx
+++ b/hh/met/source_img/screenshot/расчет px.xlsx
@@ -373,19 +373,19 @@
   <sheetData>
     <row r="1" spans="1:2" ht="153" x14ac:dyDescent="2.2000000000000002">
       <c r="A1" s="1">
-        <v>32</v>
+        <v>418</v>
       </c>
       <c r="B1" s="1">
-        <v>43</v>
+        <v>410</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="153" x14ac:dyDescent="2.2000000000000002">
       <c r="A2" s="1">
-        <v>22</v>
+        <v>303</v>
       </c>
       <c r="B2" s="1">
         <f>A2*B1/A1</f>
-        <v>29.5625</v>
+        <v>297.20095693779905</v>
       </c>
     </row>
   </sheetData>

--- a/hh/met/source_img/screenshot/расчет px.xlsx
+++ b/hh/met/source_img/screenshot/расчет px.xlsx
@@ -376,16 +376,16 @@
         <v>418</v>
       </c>
       <c r="B1" s="1">
-        <v>410</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="153" x14ac:dyDescent="2.2000000000000002">
       <c r="A2" s="1">
-        <v>303</v>
+        <v>314.75</v>
       </c>
       <c r="B2" s="1">
         <f>A2*B1/A1</f>
-        <v>297.20095693779905</v>
+        <v>217.61423444976077</v>
       </c>
     </row>
   </sheetData>

--- a/hh/met/source_img/screenshot/расчет px.xlsx
+++ b/hh/met/source_img/screenshot/расчет px.xlsx
@@ -373,19 +373,19 @@
   <sheetData>
     <row r="1" spans="1:2" ht="153" x14ac:dyDescent="2.2000000000000002">
       <c r="A1" s="1">
-        <v>418</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1">
-        <v>289</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="153" x14ac:dyDescent="2.2000000000000002">
       <c r="A2" s="1">
-        <v>314.75</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1">
         <f>A2*B1/A1</f>
-        <v>217.61423444976077</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/hh/met/source_img/screenshot/расчет px.xlsx
+++ b/hh/met/source_img/screenshot/расчет px.xlsx
@@ -373,19 +373,19 @@
   <sheetData>
     <row r="1" spans="1:2" ht="153" x14ac:dyDescent="2.2000000000000002">
       <c r="A1" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="153" x14ac:dyDescent="2.2000000000000002">
       <c r="A2" s="1">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1">
         <f>A2*B1/A1</f>
-        <v>27</v>
+        <v>16.466666666666665</v>
       </c>
     </row>
   </sheetData>

--- a/hh/met/source_img/screenshot/расчет px.xlsx
+++ b/hh/met/source_img/screenshot/расчет px.xlsx
@@ -373,19 +373,19 @@
   <sheetData>
     <row r="1" spans="1:2" ht="153" x14ac:dyDescent="2.2000000000000002">
       <c r="A1" s="1">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1">
-        <v>19</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="153" x14ac:dyDescent="2.2000000000000002">
       <c r="A2" s="1">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1">
         <f>A2*B1/A1</f>
-        <v>16.466666666666665</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
